--- a/src/Input_Files/cultures/iberia_cultures.xlsx
+++ b/src/Input_Files/cultures/iberia_cultures.xlsx
@@ -95,19 +95,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,11 +129,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
